--- a/WorkBot/main/backend/ordering/OrderFiles/A.L. George/A.L. George_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/A.L. George/A.L. George_TRIPHAMMER_20250307.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>49.50</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>55.50</t>
         </is>
       </c>
     </row>
